--- a/wages2020Q1.xlsx
+++ b/wages2020Q1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283EDDA8-B671-404A-B694-F5BC0E51912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE1D1E-7587-4436-B643-20561A42EFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-900" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,10 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000000000_ ;\-0.0000000000000000\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,13 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55E950-DBBD-4013-B069-36AC2D384167}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,19 +497,19 @@
         <v>132.69999999999999</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.57112300000000005</v>
+        <v>0.58708700000000003</v>
       </c>
       <c r="F2">
-        <v>132.799385</v>
+        <v>133.38641699999999</v>
       </c>
       <c r="G2">
-        <v>-7.1123000000000047E-2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-9.9385000000012269E-2</v>
+        <v>-0.58708700000000003</v>
+      </c>
+      <c r="H2">
+        <v>-0.68641700000000583</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -522,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>134.6</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E3">
-        <v>0.89303100000000002</v>
+        <v>0.79656400000000005</v>
       </c>
       <c r="F3">
-        <v>134.85387499999999</v>
+        <v>135.51437300000001</v>
       </c>
       <c r="G3">
-        <v>-0.39303100000000002</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.25387499999999363</v>
+        <v>-1.0965640000000001</v>
+      </c>
+      <c r="H3">
+        <v>-1.2143729999999948</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -548,22 +546,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>132.69999999999999</v>
+        <v>132.5</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E4">
-        <v>0.49626700000000001</v>
+        <v>0.311052</v>
       </c>
       <c r="F4">
-        <v>132.70040599999999</v>
+        <v>133.024742</v>
       </c>
       <c r="G4">
-        <v>3.7329999999999863E-3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-4.0599999999813008E-4</v>
+        <v>-0.51105200000000006</v>
+      </c>
+      <c r="H4">
+        <v>-0.52474200000000337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -574,22 +572,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>134.69999999999999</v>
+        <v>134.9</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
-        <v>0.65778400000000004</v>
+        <v>0.44700299999999998</v>
       </c>
       <c r="F5">
-        <v>134.52558999999999</v>
+        <v>134.92783800000001</v>
       </c>
       <c r="G5">
-        <v>4.221599999999992E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.17440999999999462</v>
+        <v>-0.24700299999999997</v>
+      </c>
+      <c r="H5">
+        <v>-2.7838000000002694E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,22 +598,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>131.5</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.65778400000000004</v>
+        <v>0.44700299999999998</v>
       </c>
       <c r="F6">
-        <v>131.48133799999999</v>
+        <v>131.87812199999999</v>
       </c>
       <c r="G6">
-        <v>-5.7784000000000058E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.8662000000006174E-2</v>
+        <v>-0.24700299999999997</v>
+      </c>
+      <c r="H6">
+        <v>-0.17812200000000189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -626,22 +624,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>136.1</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="E7">
-        <v>1.0009950000000001</v>
+        <v>0.42210399999999998</v>
       </c>
       <c r="F7">
-        <v>136.40129400000001</v>
+        <v>136.64911799999999</v>
       </c>
       <c r="G7">
-        <v>-0.4009950000000001</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.30129400000001283</v>
+        <v>-0.52210400000000001</v>
+      </c>
+      <c r="H7">
+        <v>-0.64911799999998721</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -652,22 +650,68 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>132.1</v>
+        <v>132.4</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>0.85326000000000002</v>
+        <v>0.80599500000000002</v>
       </c>
       <c r="F8">
-        <v>132.196856</v>
+        <v>132.72954300000001</v>
       </c>
       <c r="G8">
-        <v>-0.35326000000000002</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-9.6856000000002496E-2</v>
+        <v>-0.50599499999999997</v>
+      </c>
+      <c r="H8">
+        <v>-0.32954300000000103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>132.4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0.80599500000000002</v>
+      </c>
+      <c r="F9">
+        <v>132.72954300000001</v>
+      </c>
+      <c r="G9">
+        <v>-0.50599499999999997</v>
+      </c>
+      <c r="H9">
+        <v>-0.32954300000000103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>132.4</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0.80599500000000002</v>
+      </c>
+      <c r="F10">
+        <v>132.72954300000001</v>
+      </c>
+      <c r="G10">
+        <v>-0.50599499999999997</v>
+      </c>
+      <c r="H10">
+        <v>-0.32954300000000103</v>
       </c>
     </row>
   </sheetData>
